--- a/DB/Tablas de aprendizaje de movimientos/Tauros y Tauros (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Tauros y Tauros (S).xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="7080" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tauros" sheetId="1" r:id="rId1"/>
     <sheet name="Tauros (S)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tauros (S)'!$A$2:$A$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tauros (S)'!$A$2:$A$27</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">'Tauros (S)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Movimiento</t>
   </si>
@@ -143,18 +143,12 @@
   </si>
   <si>
     <t>Bola sombra</t>
-  </si>
-  <si>
-    <t>Levitón</t>
-  </si>
-  <si>
-    <t>Velo sagrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,17 +490,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B25" sqref="A25:B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -522,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -538,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -546,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -554,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -562,7 +556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -570,7 +564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -578,7 +572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -586,7 +580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -594,7 +588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -602,7 +596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -610,7 +604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -618,7 +612,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -626,7 +620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -634,7 +628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -642,7 +636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -650,7 +644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -658,7 +652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -666,7 +660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -674,7 +668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -682,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -690,7 +684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -698,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -717,19 +711,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -745,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -753,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -761,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -769,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -777,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -785,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -793,7 +787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -801,7 +795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -809,7 +803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -817,7 +811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -825,7 +819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -833,7 +827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -841,7 +835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -849,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -857,7 +851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -865,7 +859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -873,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -881,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -889,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -897,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -905,7 +899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -913,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -921,43 +915,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/DB/Tablas de aprendizaje de movimientos/Tauros y Tauros (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Tauros y Tauros (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
